--- a/simulation_data/iterative_algorithm/i_error_level_9_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_9_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.13863265635757</v>
+        <v>88.35989948371224</v>
       </c>
       <c r="D2" t="n">
-        <v>14.57407444570087</v>
+        <v>12.07322510716062</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.01815340155851</v>
+        <v>88.36347846317292</v>
       </c>
       <c r="D3" t="n">
-        <v>14.23209967787555</v>
+        <v>12.76974250985101</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>86.86341100342986</v>
+        <v>87.08975453308383</v>
       </c>
       <c r="D4" t="n">
-        <v>12.85341098986657</v>
+        <v>14.1299159285309</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.37858249225226</v>
+        <v>86.66622277345624</v>
       </c>
       <c r="D5" t="n">
-        <v>12.7171784164981</v>
+        <v>12.63111395626337</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.93659381646329</v>
+        <v>86.04651187558302</v>
       </c>
       <c r="D6" t="n">
-        <v>13.63005688606262</v>
+        <v>13.27532177354053</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.17610173058203</v>
+        <v>85.68724039112286</v>
       </c>
       <c r="D7" t="n">
-        <v>13.87395239571539</v>
+        <v>13.18678759240864</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.55832590342933</v>
+        <v>84.0713732499793</v>
       </c>
       <c r="D8" t="n">
-        <v>13.28441053261415</v>
+        <v>12.75259951747947</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.4735681161682</v>
+        <v>84.71031437141087</v>
       </c>
       <c r="D9" t="n">
-        <v>13.35762540704968</v>
+        <v>11.52800726525295</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.79234593581549</v>
+        <v>80.9396880565248</v>
       </c>
       <c r="D10" t="n">
-        <v>11.74940095565661</v>
+        <v>12.00247935273165</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.73914032334798</v>
+        <v>81.46400197761278</v>
       </c>
       <c r="D11" t="n">
-        <v>14.2201551895109</v>
+        <v>13.00249268215213</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>78.9649183408429</v>
+        <v>79.28976418445272</v>
       </c>
       <c r="D12" t="n">
-        <v>12.86112303669855</v>
+        <v>14.12058439864763</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.21193708407202</v>
+        <v>78.96167416951292</v>
       </c>
       <c r="D13" t="n">
-        <v>13.22255590372592</v>
+        <v>12.29411347066766</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.69312199075995</v>
+        <v>77.5884327854201</v>
       </c>
       <c r="D14" t="n">
-        <v>13.23501273573194</v>
+        <v>11.88210707502568</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.70064998687344</v>
+        <v>78.77195172607678</v>
       </c>
       <c r="D15" t="n">
-        <v>11.31487979672954</v>
+        <v>12.2973518430477</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.95021041109544</v>
+        <v>75.40713623109212</v>
       </c>
       <c r="D16" t="n">
-        <v>13.50104941434833</v>
+        <v>13.68285163047071</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.36050006201359</v>
+        <v>74.39007043149969</v>
       </c>
       <c r="D17" t="n">
-        <v>14.23320886271786</v>
+        <v>13.15411268063391</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.49533646259549</v>
+        <v>71.38794857373287</v>
       </c>
       <c r="D18" t="n">
-        <v>11.74783658568418</v>
+        <v>12.80057261471212</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.95429536665688</v>
+        <v>72.76627986173905</v>
       </c>
       <c r="D19" t="n">
-        <v>12.80309768710587</v>
+        <v>14.46945118158114</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.3183717470127</v>
+        <v>70.08832808459228</v>
       </c>
       <c r="D20" t="n">
-        <v>12.64189331341342</v>
+        <v>13.77222931042687</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.68661663765701</v>
+        <v>69.40655723828087</v>
       </c>
       <c r="D21" t="n">
-        <v>13.99164133113151</v>
+        <v>12.72527266606834</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.45892341601031</v>
+        <v>70.85925579135737</v>
       </c>
       <c r="D22" t="n">
-        <v>14.75994596796934</v>
+        <v>12.82841196961874</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.94903912211942</v>
+        <v>69.48148564166745</v>
       </c>
       <c r="D23" t="n">
-        <v>13.7692860215237</v>
+        <v>12.12285545184784</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.42795329692861</v>
+        <v>70.20923439127651</v>
       </c>
       <c r="D24" t="n">
-        <v>13.45913594490209</v>
+        <v>11.66408313546341</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>65.44199766445048</v>
+        <v>68.70945431056184</v>
       </c>
       <c r="D25" t="n">
-        <v>13.35979566144118</v>
+        <v>10.72201578239856</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.03734136973969</v>
+        <v>66.06527898832429</v>
       </c>
       <c r="D26" t="n">
-        <v>12.75695119595779</v>
+        <v>13.96295351103909</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.17777345535929</v>
+        <v>62.00335578581414</v>
       </c>
       <c r="D27" t="n">
-        <v>12.94135466606449</v>
+        <v>13.76065932660017</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.09162467864194</v>
+        <v>62.59662322769211</v>
       </c>
       <c r="D28" t="n">
-        <v>13.56671330603568</v>
+        <v>12.17867190417635</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.78198036304487</v>
+        <v>63.87420351649322</v>
       </c>
       <c r="D29" t="n">
-        <v>12.99439904168267</v>
+        <v>13.89773748932759</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>58.91741937707277</v>
+        <v>61.18539871517259</v>
       </c>
       <c r="D30" t="n">
-        <v>14.24745033966466</v>
+        <v>12.25007924513689</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.04151727467577</v>
+        <v>61.55669074264289</v>
       </c>
       <c r="D31" t="n">
-        <v>12.65083140762902</v>
+        <v>11.84242218469963</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.85233887797345</v>
+        <v>59.14262083102428</v>
       </c>
       <c r="D32" t="n">
-        <v>11.8810635631699</v>
+        <v>12.86090911370931</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.32226386904663</v>
+        <v>58.5389946469349</v>
       </c>
       <c r="D33" t="n">
-        <v>13.56715001819619</v>
+        <v>13.23693060984994</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.24971381081336</v>
+        <v>58.75958183692323</v>
       </c>
       <c r="D34" t="n">
-        <v>12.53751394016875</v>
+        <v>12.16061798244384</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.07817972906015</v>
+        <v>56.91791790777259</v>
       </c>
       <c r="D35" t="n">
-        <v>13.13320519760324</v>
+        <v>13.85836681855905</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.80383003326921</v>
+        <v>53.76462358192059</v>
       </c>
       <c r="D36" t="n">
-        <v>15.65896176910424</v>
+        <v>12.79159273264626</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.39061067958647</v>
+        <v>54.56426871411785</v>
       </c>
       <c r="D37" t="n">
-        <v>14.86668753539097</v>
+        <v>14.46441826925064</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.27311204175658</v>
+        <v>53.42190872619912</v>
       </c>
       <c r="D38" t="n">
-        <v>13.15508983466502</v>
+        <v>12.70570181472377</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.85143101528764</v>
+        <v>54.55561239916547</v>
       </c>
       <c r="D39" t="n">
-        <v>12.60010950106065</v>
+        <v>13.20888786079497</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.39681343407206</v>
+        <v>52.06366037460914</v>
       </c>
       <c r="D40" t="n">
-        <v>13.16052104910811</v>
+        <v>12.73424669851874</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.98827386459736</v>
+        <v>51.47843458090784</v>
       </c>
       <c r="D41" t="n">
-        <v>13.35246976999932</v>
+        <v>13.16547736494684</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.60830737167927</v>
+        <v>48.48704282476661</v>
       </c>
       <c r="D42" t="n">
-        <v>15.33276960347377</v>
+        <v>13.60197612548457</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.47709789627122</v>
+        <v>47.80908795845833</v>
       </c>
       <c r="D43" t="n">
-        <v>13.51195019741734</v>
+        <v>14.14559266228656</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.32152198656325</v>
+        <v>46.67055445514389</v>
       </c>
       <c r="D44" t="n">
-        <v>12.30233414120637</v>
+        <v>12.05303451416539</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.76268077407607</v>
+        <v>46.09978970903229</v>
       </c>
       <c r="D45" t="n">
-        <v>13.39086173457401</v>
+        <v>12.49027333830121</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.4687761537151</v>
+        <v>45.05632227951609</v>
       </c>
       <c r="D46" t="n">
-        <v>12.60037098249324</v>
+        <v>12.8677330929348</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.1280569592424</v>
+        <v>44.96676073199611</v>
       </c>
       <c r="D47" t="n">
-        <v>12.59357100406227</v>
+        <v>14.57472294211159</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.58851319939634</v>
+        <v>42.93873681156748</v>
       </c>
       <c r="D48" t="n">
-        <v>13.66616927428894</v>
+        <v>12.25346683559866</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.36945938571677</v>
+        <v>43.06095951312312</v>
       </c>
       <c r="D49" t="n">
-        <v>12.31540315227012</v>
+        <v>14.9531003819563</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.14254320211534</v>
+        <v>44.25124720050271</v>
       </c>
       <c r="D50" t="n">
-        <v>14.1874779605446</v>
+        <v>11.75909863519432</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.02419818598749</v>
+        <v>41.62420536390992</v>
       </c>
       <c r="D51" t="n">
-        <v>13.9332134621647</v>
+        <v>13.09986982521968</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.27615167753952</v>
+        <v>39.83804739210736</v>
       </c>
       <c r="D52" t="n">
-        <v>13.91644845734462</v>
+        <v>13.25102195357818</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.86937509854224</v>
+        <v>40.87699591560826</v>
       </c>
       <c r="D53" t="n">
-        <v>16.24351139949528</v>
+        <v>13.44038386119884</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.85619924060454</v>
+        <v>38.21703268621726</v>
       </c>
       <c r="D54" t="n">
-        <v>13.74788901403617</v>
+        <v>14.91074630388293</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.05227379730285</v>
+        <v>35.79481167166406</v>
       </c>
       <c r="D55" t="n">
-        <v>13.65628955880543</v>
+        <v>13.88544552700623</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.00494957772948</v>
+        <v>35.76339601389387</v>
       </c>
       <c r="D56" t="n">
-        <v>13.20551522629952</v>
+        <v>12.51911158807405</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.59152043504609</v>
+        <v>33.94898367288138</v>
       </c>
       <c r="D57" t="n">
-        <v>12.31129468630147</v>
+        <v>12.80233127136936</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.1385440027541</v>
+        <v>35.09663062960547</v>
       </c>
       <c r="D58" t="n">
-        <v>13.03975486866288</v>
+        <v>13.97280348090318</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.73958827122558</v>
+        <v>31.3702246675138</v>
       </c>
       <c r="D59" t="n">
-        <v>14.47797942769733</v>
+        <v>12.94518368252701</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.96350551784662</v>
+        <v>33.84990525807539</v>
       </c>
       <c r="D60" t="n">
-        <v>14.42768965578213</v>
+        <v>13.40659463124453</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.98801339856555</v>
+        <v>31.30905976152349</v>
       </c>
       <c r="D61" t="n">
-        <v>14.22233801802674</v>
+        <v>15.06783515623928</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>33.09247581626241</v>
+        <v>31.14089688549991</v>
       </c>
       <c r="D62" t="n">
-        <v>13.23832525801961</v>
+        <v>14.33305000424416</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.40688346904414</v>
+        <v>27.83060897283764</v>
       </c>
       <c r="D63" t="n">
-        <v>12.64420404704827</v>
+        <v>14.72882593347127</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.13561210283376</v>
+        <v>29.63784798775161</v>
       </c>
       <c r="D64" t="n">
-        <v>12.01038183586476</v>
+        <v>12.70318893622743</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.13709129764732</v>
+        <v>28.16490640585114</v>
       </c>
       <c r="D65" t="n">
-        <v>15.17158242037977</v>
+        <v>15.86673676629507</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.09771009405615</v>
+        <v>25.15478285041879</v>
       </c>
       <c r="D66" t="n">
-        <v>13.11291015121203</v>
+        <v>13.87400650486023</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.84237700075472</v>
+        <v>24.17260643325406</v>
       </c>
       <c r="D67" t="n">
-        <v>13.255707348128</v>
+        <v>11.61252968279739</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.33159577168218</v>
+        <v>23.085669324553</v>
       </c>
       <c r="D68" t="n">
-        <v>13.63519792771015</v>
+        <v>13.54600962704165</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>25.50089654466397</v>
+        <v>22.09853771779</v>
       </c>
       <c r="D69" t="n">
-        <v>16.02632852804179</v>
+        <v>13.54752109593972</v>
       </c>
     </row>
   </sheetData>
